--- a/第三章/占比分析.xlsx
+++ b/第三章/占比分析.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\第三章\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D53E7-AC81-4351-B7AF-9A2280A2EAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AAEB51-4892-462D-AAB1-93C34DDAAB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{42D1C6C2-F294-4ABA-B132-81855B4E381E}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12948" xr2:uid="{42D1C6C2-F294-4ABA-B132-81855B4E381E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,12 +110,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -437,7 +434,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -466,7 +463,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
@@ -486,7 +483,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>27</v>
       </c>
@@ -504,7 +501,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>32</v>
       </c>
@@ -522,7 +519,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>37</v>
       </c>
@@ -540,7 +537,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -560,7 +557,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>27</v>
       </c>
@@ -578,7 +575,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>32</v>
       </c>
@@ -596,7 +593,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>37</v>
       </c>
@@ -614,7 +611,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -634,7 +631,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>27</v>
       </c>
@@ -652,7 +649,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>32</v>
       </c>
@@ -670,7 +667,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>37</v>
       </c>
@@ -688,7 +685,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1">
@@ -708,7 +705,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>27</v>
       </c>
@@ -726,7 +723,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>32</v>
       </c>
@@ -744,7 +741,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>37</v>
       </c>
@@ -762,12 +759,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
